--- a/Config/Excel/Datas/__tables__.xlsx
+++ b/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -94,6 +94,9 @@
     </r>
   </si>
   <si>
+    <t>记录类名</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -102,10 +105,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>记录类名</t>
-    </r>
-  </si>
-  <si>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>excel</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -114,7 +125,22 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>从</t>
+      <t>读取定义</t>
+    </r>
+  </si>
+  <si>
+    <t>文件列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
     </r>
     <r>
       <rPr>
@@ -124,6 +150,80 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时取已有定义，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>excel</t>
     </r>
     <r>
@@ -134,7 +234,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>读取定义</t>
+      <t>标题头和属性栏读取定义</t>
     </r>
   </si>
   <si>
@@ -146,10 +246,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>文件列表</t>
-    </r>
-  </si>
-  <si>
+      <t>可以多个，以逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -158,7 +266,19 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>表</t>
+      <t>分隔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为空的话自动取</t>
     </r>
     <r>
       <rPr>
@@ -168,7 +288,7 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>id</t>
+      <t>value_type</t>
     </r>
     <r>
       <rPr>
@@ -178,10 +298,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>字段</t>
-    </r>
-  </si>
-  <si>
+      <t>中第一个字段</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -190,10 +318,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>模式</t>
-    </r>
-  </si>
-  <si>
+      <t>多主键联合索引为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key1+key2,</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -202,7 +338,17 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>分组</t>
+      <t>多主键独立索引为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"key1,key2"</t>
     </r>
   </si>
   <si>
@@ -214,10 +360,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>注释</t>
-    </r>
-  </si>
-  <si>
+      <t>取值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>one|map|list</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -226,10 +380,8 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>输出文件名</t>
-    </r>
-  </si>
-  <si>
+      <t>，为空自动为</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -238,8 +390,10 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>false</t>
-    </r>
+      <t>map</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -248,7 +402,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>时取已有定义，</t>
+      <t>取值</t>
     </r>
     <r>
       <rPr>
@@ -258,7 +412,7 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>true</t>
+      <t>c|s|e</t>
     </r>
     <r>
       <rPr>
@@ -268,7 +422,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>为从</t>
+      <t>，可以有多个，以逗号</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +432,7 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>excel</t>
+      <t>','</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +442,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>标题头和属性栏读取定义</t>
+      <t>分隔。空则表示属于所有分组</t>
     </r>
   </si>
   <si>
@@ -300,7 +454,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>可以多个，以逗号</t>
+      <t>默认为</t>
     </r>
     <r>
       <rPr>
@@ -310,214 +464,6 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分隔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空的话自动取</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>value_type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中第一个字段</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多主键联合索引为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>key1+key2,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多主键独立索引为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"key1,key2"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取值</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>one|map|list</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，为空自动为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>map</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取值</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c|s|e</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，可以有多个，以逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分隔。空则表示属于所有分组</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
     </r>
   </si>
@@ -546,28 +492,55 @@
     <t>RouterTest</t>
   </si>
   <si>
+    <t>TGlobalConfig</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>c,s</t>
+  </si>
+  <si>
+    <t>UnitConfig</t>
+  </si>
+  <si>
     <t>AIConfig</t>
   </si>
   <si>
-    <t>aiconfig.xlsx</t>
-  </si>
-  <si>
-    <t>c,s,e</t>
-  </si>
-  <si>
-    <t>UnitConfig</t>
-  </si>
-  <si>
-    <t>unitconfig.xlsx</t>
-  </si>
-  <si>
-    <t>TGlobalConfig</t>
-  </si>
-  <si>
-    <t>TGlobalConfig.xlsx</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>ServerInfoConfig</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>BattleLevelConfig</t>
+  </si>
+  <si>
+    <t>EntryConfig</t>
+  </si>
+  <si>
+    <t>EntryRandomConfig</t>
+  </si>
+  <si>
+    <t>EquipConfig</t>
+  </si>
+  <si>
+    <t>ForgeProductionConfig</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>PlayerLevelConfig</t>
+  </si>
+  <si>
+    <t>TaskActionConfig</t>
+  </si>
+  <si>
+    <t>TaskConfig</t>
+  </si>
+  <si>
+    <t>PlayerNumericConfig</t>
   </si>
 </sst>
 </file>
@@ -580,7 +553,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,25 +564,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
@@ -623,6 +577,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -769,13 +737,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1235,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,33 +1208,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,101 +1247,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1357,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="27" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1414,98 +1378,98 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="35" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="35" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="27" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1561,36 +1525,91 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="left" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
   </dxfs>
@@ -1604,8 +1623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K26" totalsRowShown="0">
-  <autoFilter ref="A1:K26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K33" totalsRowShown="0">
+  <autoFilter ref="A1:K33"/>
   <tableColumns count="11">
     <tableColumn id="1" name="##var" dataDxfId="0"/>
     <tableColumn id="2" name="full_name" dataDxfId="1"/>
@@ -1881,849 +1900,1118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.6666666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="35" style="7" customWidth="1"/>
-    <col min="5" max="5" width="69.6666666666667" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.6666666666667" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.2222222222222" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.7777777777778" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.6666666666667" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.1111111111111" style="7" customWidth="1"/>
+    <col min="2" max="2" width="44.1111111111111" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.1111111111111" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35" style="8" customWidth="1"/>
+    <col min="5" max="5" width="69.6666666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="45.6666666666667" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.2222222222222" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.7777777777778" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" style="8" customWidth="1"/>
+    <col min="11" max="11" width="44.1111111111111" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:20">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A2" s="11" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="49.35" spans="1:20">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="33" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="16.95" spans="1:20">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="str">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="str">
         <f>_xlfn.CONCAT(C4,"Category")</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="b">
+      <c r="D4" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="str">
-        <f t="shared" ref="E4:E19" si="0">_xlfn.CONCAT("StartConfig/",H4,"/",C4,".xlsx")</f>
+      <c r="E4" s="18" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H4,"/",C4,".xlsx")</f>
         <v>StartConfig/Benchmark/StartMachineConfig.xlsx</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="str">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="str">
         <f>B4</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17" t="str">
-        <f t="shared" ref="B5:B22" si="1">_xlfn.CONCAT(C5,"Category")</f>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:20">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19" t="str">
+        <f>_xlfn.CONCAT(C5,"Category")</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17" t="b">
+      <c r="D5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="19" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H5,"/",C5,".xlsx")</f>
         <v>StartConfig/Benchmark/StartProcessConfig.xlsx</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="str">
-        <f t="shared" ref="K5:K22" si="2">B5</f>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="str">
+        <f>B5</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:20">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19" t="str">
+        <f>_xlfn.CONCAT(C6,"Category")</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="17" t="b">
+      <c r="D6" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="19" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H6,"/",C6,".xlsx")</f>
         <v>StartConfig/Benchmark/StartSceneConfig.xlsx</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="str">
-        <f t="shared" si="2"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37" t="str">
+        <f>B6</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:20">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19" t="str">
+        <f>_xlfn.CONCAT(C7,"Category")</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17" t="b">
+      <c r="D7" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" s="19" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H7,"/",C7,".xlsx")</f>
         <v>StartConfig/Benchmark/StartZoneConfig.xlsx</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="str">
-        <f t="shared" si="2"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37" t="str">
+        <f>B7</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:20">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="str">
+        <f>_xlfn.CONCAT(C8,"Category")</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19" t="b">
+      <c r="D8" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" s="21" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H8,"/",C8,".xlsx")</f>
         <v>StartConfig/Localhost/StartMachineConfig.xlsx</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36" t="str">
-        <f t="shared" si="2"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38" t="str">
+        <f>B8</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:20">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="str">
+        <f>_xlfn.CONCAT(C9,"Category")</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19" t="b">
+      <c r="D9" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" s="21" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H9,"/",C9,".xlsx")</f>
         <v>StartConfig/Localhost/StartProcessConfig.xlsx</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36" t="str">
-        <f t="shared" si="2"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="str">
+        <f>B9</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:20">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="str">
+        <f>_xlfn.CONCAT(C10,"Category")</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="b">
+      <c r="D10" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" s="21" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H10,"/",C10,".xlsx")</f>
         <v>StartConfig/Localhost/StartSceneConfig.xlsx</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36" t="str">
-        <f t="shared" si="2"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="str">
+        <f>B10</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:20">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="str">
+        <f>_xlfn.CONCAT(C11,"Category")</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="19" t="b">
+      <c r="D11" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" s="21" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H11,"/",C11,".xlsx")</f>
         <v>StartConfig/Localhost/StartZoneConfig.xlsx</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36" t="str">
-        <f t="shared" si="2"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="str">
+        <f>B11</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:20">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="str">
+        <f>_xlfn.CONCAT(C12,"Category")</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21" t="b">
+      <c r="D12" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" s="23" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H12,"/",C12,".xlsx")</f>
         <v>StartConfig/Release/StartMachineConfig.xlsx</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="str">
-        <f t="shared" si="2"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40" t="str">
+        <f>B12</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:20">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="str">
+        <f>_xlfn.CONCAT(C13,"Category")</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="b">
+      <c r="D13" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" s="23" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H13,"/",C13,".xlsx")</f>
         <v>StartConfig/Release/StartProcessConfig.xlsx</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="str">
-        <f t="shared" si="2"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40" t="str">
+        <f>B13</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:20">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="str">
+        <f>_xlfn.CONCAT(C14,"Category")</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="21" t="b">
+      <c r="D14" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" s="23" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H14,"/",C14,".xlsx")</f>
         <v>StartConfig/Release/StartSceneConfig.xlsx</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="str">
-        <f t="shared" si="2"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40" t="str">
+        <f>B14</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:20">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="str">
+        <f>_xlfn.CONCAT(C15,"Category")</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="21" t="b">
+      <c r="D15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" s="23" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H15,"/",C15,".xlsx")</f>
         <v>StartConfig/Release/StartZoneConfig.xlsx</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="str">
-        <f t="shared" si="2"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40" t="str">
+        <f>B15</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:20">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="str">
+        <f>_xlfn.CONCAT(C16,"Category")</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="23" t="b">
+      <c r="D16" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" s="25" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H16,"/",C16,".xlsx")</f>
         <v>StartConfig/RouterTest/StartMachineConfig.xlsx</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40" t="str">
-        <f t="shared" si="2"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42" t="str">
+        <f>B16</f>
         <v>StartMachineConfigCategory</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:20">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="str">
+        <f>_xlfn.CONCAT(C17,"Category")</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="23" t="b">
+      <c r="D17" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" s="25" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H17,"/",C17,".xlsx")</f>
         <v>StartConfig/RouterTest/StartProcessConfig.xlsx</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40" t="str">
-        <f t="shared" si="2"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="str">
+        <f>B17</f>
         <v>StartProcessConfigCategory</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:20">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="str">
+        <f>_xlfn.CONCAT(C18,"Category")</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="23" t="b">
+      <c r="D18" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" s="25" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H18,"/",C18,".xlsx")</f>
         <v>StartConfig/RouterTest/StartSceneConfig.xlsx</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40" t="str">
-        <f t="shared" si="2"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42" t="str">
+        <f>B18</f>
         <v>StartSceneConfigCategory</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="16.2" spans="1:20">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:20">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="str">
+        <f>_xlfn.CONCAT(C19,"Category")</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="23" t="b">
+      <c r="D19" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E19" s="25" t="str">
+        <f>_xlfn.CONCAT("StartConfig/",H19,"/",C19,".xlsx")</f>
         <v>StartConfig/RouterTest/StartZoneConfig.xlsx</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40" t="str">
-        <f t="shared" si="2"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42" t="str">
+        <f>B19</f>
         <v>StartZoneConfigCategory</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-    </row>
-    <row r="20" ht="16.2" spans="1:20">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="str">
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="str">
         <f>_xlfn.CONCAT(C20,"Category")</f>
+        <v>TGlobalConfigCategory</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C20,".xlsx")</f>
+        <v>GameConfig/TGlobalConfig.xlsx</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28" t="str">
+        <f>B20</f>
+        <v>TGlobalConfigCategory</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="str">
+        <f>_xlfn.CONCAT(C21,"Category")</f>
+        <v>UnitConfigCategory</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C21,".xlsx")</f>
+        <v>GameConfig/UnitConfig.xlsx</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28" t="str">
+        <f>B21</f>
+        <v>UnitConfigCategory</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="str">
+        <f>_xlfn.CONCAT(C22,"Category")</f>
         <v>AIConfigCategory</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26" t="b">
+      <c r="C22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26" t="s">
+      <c r="E22" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C22,".xlsx")</f>
+        <v>GameConfig/AIConfig.xlsx</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28" t="str">
+        <f>B22</f>
         <v>AIConfigCategory</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" ht="16.2" spans="1:11">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>UnitConfigCategory</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="26" t="b">
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:11">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="str">
+        <f>_xlfn.CONCAT(C23,"Category")</f>
+        <v>ServerInfoConfigCategory</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
+      <c r="E23" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C23,".xlsx")</f>
+        <v>GameConfig/ServerInfoConfig.xlsx</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28" t="str">
+        <f>B23</f>
+        <v>ServerInfoConfigCategory</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:11">
+      <c r="A24" s="31"/>
+      <c r="B24" s="28" t="str">
+        <f>_xlfn.CONCAT(C24,"Category")</f>
+        <v>BattleLevelConfigCategory</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C24,".xlsx")</f>
+        <v>GameConfig/BattleLevelConfig.xlsx</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28" t="str">
+        <f>B24</f>
+        <v>BattleLevelConfigCategory</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="8" t="str">
+        <f>_xlfn.CONCAT(C25,"Category")</f>
+        <v>EntryConfigCategory</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C25,".xlsx")</f>
+        <v>GameConfig/EntryConfig.xlsx</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="28" t="str">
+        <f>B25</f>
+        <v>EntryConfigCategory</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="8" t="str">
+        <f>_xlfn.CONCAT(C26,"Category")</f>
+        <v>EntryRandomConfigCategory</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C26,".xlsx")</f>
+        <v>GameConfig/EntryRandomConfig.xlsx</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>UnitConfigCategory</v>
-      </c>
-    </row>
-    <row r="22" ht="16.2" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>TGlobalConfigCategory</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="26" t="b">
+      <c r="K26" s="28" t="str">
+        <f>B26</f>
+        <v>EntryRandomConfigCategory</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="8" t="str">
+        <f>_xlfn.CONCAT(C27,"Category")</f>
+        <v>EquipConfigCategory</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="26" t="s">
+      <c r="E27" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C27,".xlsx")</f>
+        <v>GameConfig/EquipConfig.xlsx</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="26" t="str">
-        <f>B22</f>
-        <v>TGlobalConfigCategory</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="13.8" spans="1:1">
-      <c r="A23" s="29"/>
-    </row>
-    <row r="24" customFormat="1" ht="13.8" spans="1:1">
-      <c r="A24" s="29"/>
-    </row>
-    <row r="25" ht="16.2" spans="11:11">
-      <c r="K25" s="26"/>
+      <c r="K27" s="28" t="str">
+        <f>B27</f>
+        <v>EquipConfigCategory</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="8" t="str">
+        <f>_xlfn.CONCAT(C28,"Category")</f>
+        <v>ForgeProductionConfigCategory</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C28,".xlsx")</f>
+        <v>GameConfig/ForgeProductionConfig.xlsx</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="28" t="str">
+        <f>B28</f>
+        <v>ForgeProductionConfigCategory</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="8" t="str">
+        <f>_xlfn.CONCAT(C29,"Category")</f>
+        <v>ItemConfigCategory</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C29,".xlsx")</f>
+        <v>GameConfig/ItemConfig.xlsx</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="28" t="str">
+        <f>B29</f>
+        <v>ItemConfigCategory</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="8" t="str">
+        <f>_xlfn.CONCAT(C30,"Category")</f>
+        <v>PlayerLevelConfigCategory</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C30,".xlsx")</f>
+        <v>GameConfig/PlayerLevelConfig.xlsx</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="28" t="str">
+        <f>B30</f>
+        <v>PlayerLevelConfigCategory</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8" t="str">
+        <f>_xlfn.CONCAT(C31,"Category")</f>
+        <v>TaskActionConfigCategory</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C31,".xlsx")</f>
+        <v>GameConfig/TaskActionConfig.xlsx</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="28" t="str">
+        <f>B31</f>
+        <v>TaskActionConfigCategory</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="8" t="str">
+        <f>_xlfn.CONCAT(C32,"Category")</f>
+        <v>TaskConfigCategory</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C32,".xlsx")</f>
+        <v>GameConfig/TaskConfig.xlsx</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="28" t="str">
+        <f>B32</f>
+        <v>TaskConfigCategory</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="8" t="str">
+        <f>_xlfn.CONCAT(C33,"Category")</f>
+        <v>PlayerNumericConfigCategory</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28" t="str">
+        <f>_xlfn.CONCAT("GameConfig/",C33,".xlsx")</f>
+        <v>GameConfig/PlayerNumericConfig.xlsx</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="28" t="str">
+        <f>B33</f>
+        <v>PlayerNumericConfigCategory</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D19 D20:D31 D32:D33 D34:D37 D38:D1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G31 G32:G33 G34:G37 G38:G1048576">
       <formula1>"one,map,list"</formula1>
     </dataValidation>
   </dataValidations>
